--- a/refs/heads/main/observations-summary.xlsx
+++ b/refs/heads/main/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-laboratory-observations-uv-ips (extensible)</t>
+    <t>http://hl7.org/fhir/uv/ips/ValueSet/results-laboratory-observations-uv-ips (preferred)</t>
   </si>
   <si>
     <t>dateTimeĵ</t>
